--- a/QuanLyThuVienHUFI/Form_QuanLyThuVien/bin/Debug/DanhSachPhieuMuonTreHanChuaTra.xlsx
+++ b/QuanLyThuVienHUFI/Form_QuanLyThuVien/bin/Debug/DanhSachPhieuMuonTreHanChuaTra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevPrograms\DATN_25_12_2020\DATN_QuanLyThuVienHUFI_LamDat(25_12)\QuanLyThuVienHUFI\Form_QuanLyThuVien\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevPrograms\GitHub\DATN\HUFILibrary\QuanLyThuVienHUFI\Form_QuanLyThuVien\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="phieumuon">Sheet1!$B$13:$F$13</definedName>
+    <definedName name="phieumuon">Sheet1!$B$13:$G$13</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="0" fullCalcOnLoad="1"/>
   <extLst>
@@ -44,40 +44,46 @@
     <t>Họ và tên người in:</t>
   </si>
   <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Mã số thẻ người in:</t>
+  </si>
+  <si>
+    <t>10000003</t>
+  </si>
+  <si>
+    <t>Mã phiếu mượn</t>
+  </si>
+  <si>
+    <t>Mã thẻ thư viện</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Thời hạn mượn</t>
+  </si>
+  <si>
+    <t>Số lượng tài liệu trễ</t>
+  </si>
+  <si>
+    <t>Số ngày trễ</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2001170373</t>
+  </si>
+  <si>
     <t>Nguyễn Nhật Lâm</t>
   </si>
   <si>
-    <t>Mã số thẻ người in:</t>
-  </si>
-  <si>
-    <t>10000002</t>
-  </si>
-  <si>
-    <t>Mã phiếu mượn</t>
-  </si>
-  <si>
-    <t>Mã thẻ thư viện</t>
-  </si>
-  <si>
-    <t>Tên nhân viên</t>
-  </si>
-  <si>
-    <t>Thời hạn mượn</t>
-  </si>
-  <si>
-    <t>Phí cọc</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2001170373</t>
-  </si>
-  <si>
-    <t>1/26/2019 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>150000</t>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>716</t>
   </si>
   <si>
     <t>4</t>
@@ -86,16 +92,13 @@
     <t>2001170018</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>2033207524</t>
   </si>
   <si>
-    <t>50000</t>
+    <t>2</t>
   </si>
   <si>
     <t>6</t>
@@ -104,16 +107,13 @@
     <t>2033207526</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>250000</t>
-  </si>
-  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>35000</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,11 +212,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -231,6 +244,15 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,9 +270,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +554,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,46 +568,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" ht="23.4" customHeight="1">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="7" ht="16.8">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" ht="15.6">
       <c r="H8" s="1"/>
@@ -597,10 +616,10 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="11" ht="15"/>
     <row r="12" ht="16.2">
@@ -616,110 +635,131 @@
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="24.6" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.8" customHeight="1">
       <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="15.6">
       <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" ht="15.6">
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="1">

--- a/QuanLyThuVienHUFI/Form_QuanLyThuVien/bin/Debug/DanhSachPhieuMuonTreHanChuaTra.xlsx
+++ b/QuanLyThuVienHUFI/Form_QuanLyThuVien/bin/Debug/DanhSachPhieuMuonTreHanChuaTra.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>TRƯỜNG ĐẠI HỌC CÔNG NGHIỆP THỰC PHẨM TP.HCM</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Họ và tên người in:</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
+    <t>Nguyễn Nhật Lâm</t>
   </si>
   <si>
     <t>Mã số thẻ người in:</t>
   </si>
   <si>
-    <t>10000003</t>
+    <t>10000002</t>
   </si>
   <si>
     <t>Mã phiếu mượn</t>
@@ -77,28 +77,16 @@
     <t>2001170373</t>
   </si>
   <si>
-    <t>Nguyễn Nhật Lâm</t>
-  </si>
-  <si>
     <t>26/01/2019</t>
   </si>
   <si>
-    <t>716</t>
+    <t>723</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
     <t>2001170018</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2033207524</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>6</t>
@@ -650,117 +638,101 @@
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.8" customHeight="1">
       <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" ht="15.6">
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="18" ht="15.6">
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" ht="14.4" customHeight="1">
       <c r="D19" s="6"/>
